--- a/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6775,13 +6775,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7492</v>
+        <v>7495</v>
       </c>
       <c r="D125" t="n">
         <v>1184</v>
       </c>
       <c r="E125" t="n">
-        <v>21777708</v>
+        <v>21785436</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4595</v>
+        <v>4597</v>
       </c>
       <c r="D711" t="n">
         <v>509</v>
       </c>
       <c r="E711" t="n">
-        <v>13136235</v>
+        <v>13136795</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -38701,13 +38701,13 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="D751" t="n">
         <v>9376</v>
       </c>
       <c r="E751" t="n">
-        <v>129058843</v>
+        <v>129257296</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
@@ -42067,13 +42067,13 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>11512</v>
+        <v>11513</v>
       </c>
       <c r="D817" t="n">
         <v>3779</v>
       </c>
       <c r="E817" t="n">
-        <v>23543825</v>
+        <v>23553825</v>
       </c>
       <c r="F817" t="inlineStr">
         <is>
@@ -43138,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>16735</v>
+        <v>16736</v>
       </c>
       <c r="D838" t="n">
         <v>3086</v>
       </c>
       <c r="E838" t="n">
-        <v>65149110</v>
+        <v>65194851</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43291,13 +43291,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>50257</v>
+        <v>50258</v>
       </c>
       <c r="D841" t="n">
         <v>9606</v>
       </c>
       <c r="E841" t="n">
-        <v>156702339</v>
+        <v>156888595</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108601</v>
+        <v>108607</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>560740778</v>
+        <v>560816258</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90255</v>
+        <v>90256</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232651475</v>
+        <v>232662737</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182189</v>
+        <v>182193</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1647605476</v>
+        <v>1647625409</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60040</v>
+        <v>60045</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>287970618</v>
+        <v>288094933</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23231</v>
+        <v>23232</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82729234</v>
+        <v>82735442</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183858</v>
+        <v>183867</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552915526</v>
+        <v>552953723</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51308</v>
+        <v>51314</v>
       </c>
       <c r="D859" t="n">
         <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>423417564</v>
+        <v>423449876</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34647</v>
+        <v>34648</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70047419</v>
+        <v>70052614</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44311,13 +44311,13 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>25660</v>
+        <v>25661</v>
       </c>
       <c r="D861" t="n">
         <v>9251</v>
       </c>
       <c r="E861" t="n">
-        <v>35765821</v>
+        <v>35767266</v>
       </c>
       <c r="F861" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114956</v>
+        <v>114962</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418282027</v>
+        <v>418314520</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48538</v>
+        <v>48539</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>132898682</v>
+        <v>132903544</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45076,13 +45076,13 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>8443</v>
+        <v>8444</v>
       </c>
       <c r="D876" t="n">
         <v>1569</v>
       </c>
       <c r="E876" t="n">
-        <v>38014119</v>
+        <v>38057085</v>
       </c>
       <c r="F876" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40888</v>
+        <v>40889</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165825973</v>
+        <v>165830673</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23632</v>
+        <v>23633</v>
       </c>
       <c r="D896" t="n">
         <v>3067</v>
       </c>
       <c r="E896" t="n">
-        <v>70444136</v>
+        <v>70444916</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26096</v>
+        <v>26098</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>117960796</v>
+        <v>118037051</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -48799,13 +48799,13 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>7893</v>
+        <v>7894</v>
       </c>
       <c r="D949" t="n">
         <v>1793</v>
       </c>
       <c r="E949" t="n">
-        <v>11289237</v>
+        <v>11291524</v>
       </c>
       <c r="F949" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19706</v>
+        <v>19707</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>66074807</v>
+        <v>66147299</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4757</v>
+        <v>4759</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11756409</v>
+        <v>11763349</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -60937,13 +60937,13 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c r="D1187" t="n">
         <v>659</v>
       </c>
       <c r="E1187" t="n">
-        <v>5368312</v>
+        <v>5371312</v>
       </c>
       <c r="F1187" t="inlineStr">
         <is>
